--- a/UAT.xlsx
+++ b/UAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\stat_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{283C4591-7C7A-46C4-AAC9-425E6F165019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975E2908-7B36-4A75-BFED-55D4F13F7AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11442" yWindow="0" windowWidth="11676" windowHeight="12318" xr2:uid="{60354914-353C-422E-B894-41630B0DD82E}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{60354914-353C-422E-B894-41630B0DD82E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,8 +61,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -90,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +418,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,19 +427,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -492,5 +501,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>